--- a/final_out.xlsx
+++ b/final_out.xlsx
@@ -53,7 +53,7 @@
     <t>Stats</t>
   </si>
   <si>
-    <t>p_gs_vol</t>
+    <t>p_cell_vol</t>
   </si>
   <si>
     <t>p_clust_num</t>
